--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA212484-D8F9-4129-9042-088C0A3DA016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,23 @@
     <sheet name="code to write" sheetId="3" r:id="rId3"/>
     <sheet name="Libraries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
   <si>
     <t>MdiADoFunctions</t>
   </si>
@@ -46,18 +58,12 @@
     <t>function_name</t>
   </si>
   <si>
-    <t>mmdi_common</t>
-  </si>
-  <si>
     <t>QueryValue</t>
   </si>
   <si>
     <t>fGetRstValLong</t>
   </si>
   <si>
-    <t>mdiADOFunctions</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -100,9 +106,6 @@
     <t>MdlMain</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>MdlCommon</t>
   </si>
   <si>
@@ -119,13 +122,295 @@
   </si>
   <si>
     <t>SetKeyValue</t>
+  </si>
+  <si>
+    <t>MdlADOFunctions</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>mdl_common</t>
+  </si>
+  <si>
+    <t>ShiftCalendar</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>MdlServer</t>
+  </si>
+  <si>
+    <t>fCheckForDuplicateRealTimes</t>
+  </si>
+  <si>
+    <t>UpdateWindowsProcessID</t>
+  </si>
+  <si>
+    <t>CleanActivateJobWebParams</t>
+  </si>
+  <si>
+    <t>fClearAlarmsOnServerINIT</t>
+  </si>
+  <si>
+    <t>AddDepartment</t>
+  </si>
+  <si>
+    <t>GetOrCreateDepartment</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>ControllerFieldsLoad</t>
+  </si>
+  <si>
+    <t>ControlParam</t>
+  </si>
+  <si>
+    <t>LastValue</t>
+  </si>
+  <si>
+    <t>LoadConditionalControllerFields</t>
+  </si>
+  <si>
+    <t>fInitMachineDataSamples</t>
+  </si>
+  <si>
+    <t>DataSamples</t>
+  </si>
+  <si>
+    <t>GetParam</t>
+  </si>
+  <si>
+    <t>fLoadMachineControllerFieldActions</t>
+  </si>
+  <si>
+    <t>MdlRTControllerFieldActions</t>
+  </si>
+  <si>
+    <t>JobLoad</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>MachineType</t>
+  </si>
+  <si>
+    <t>GetOrCreateMachineType</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>GetOrCreateMold</t>
+  </si>
+  <si>
+    <t>GetUnitsInCycle</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>GetRefRecipeProductWeight</t>
+  </si>
+  <si>
+    <t>fGetRecipeValueProduct</t>
+  </si>
+  <si>
+    <t>MdlUtilsH</t>
+  </si>
+  <si>
+    <t>RTEvent</t>
+  </si>
+  <si>
+    <t>GetOpenEvent</t>
+  </si>
+  <si>
+    <t>GetOpenEngineEvent</t>
+  </si>
+  <si>
+    <t>LoadAlarms</t>
+  </si>
+  <si>
+    <t>InitMachineControlParams</t>
+  </si>
+  <si>
+    <t>InitMoldChangeDetails</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>GetOrCreateMachineType()</t>
+  </si>
+  <si>
+    <t>GetOrCreateProduct()</t>
+  </si>
+  <si>
+    <t>Refresh()</t>
+  </si>
+  <si>
+    <t>InitControllerChannels</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>ChannelSplit</t>
+  </si>
+  <si>
+    <t>GetChannelSplitTotalWeight</t>
+  </si>
+  <si>
+    <t>InitTotalWeight</t>
+  </si>
+  <si>
+    <t>InitForecastWeight</t>
+  </si>
+  <si>
+    <t>GetChannelSplitForecastWeight</t>
+  </si>
+  <si>
+    <t>InitMaterialID</t>
+  </si>
+  <si>
+    <t>GetSplitControllerFieldName</t>
+  </si>
+  <si>
+    <t>GetChannelSplitMaterialID</t>
+  </si>
+  <si>
+    <t>InitMaterialPC</t>
+  </si>
+  <si>
+    <t>GetChannelSplitMaterialPC</t>
+  </si>
+  <si>
+    <t>GetChannelSplitMaterialPCTarget</t>
+  </si>
+  <si>
+    <t>InitMaterialPCTarget</t>
+  </si>
+  <si>
+    <t>InitMaterialBatch</t>
+  </si>
+  <si>
+    <t>GetChannelSplitMaterialBatch</t>
+  </si>
+  <si>
+    <t>fInitMachineTriggers</t>
+  </si>
+  <si>
+    <t>MdlOnlineTasks</t>
+  </si>
+  <si>
+    <t>LoadMachineValidations</t>
+  </si>
+  <si>
+    <t>MdlValidation</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>CheckIfDosingSystem</t>
+  </si>
+  <si>
+    <t>AddMachine</t>
+  </si>
+  <si>
+    <t>GetOpenWorkingEvent</t>
+  </si>
+  <si>
+    <t>GetCurrentShift</t>
+  </si>
+  <si>
+    <t>fCalcShiftChange</t>
+  </si>
+  <si>
+    <t>MdlRTShift</t>
+  </si>
+  <si>
+    <t>UpdateMachineStatus</t>
+  </si>
+  <si>
+    <t>CalcAutomaticRejects</t>
+  </si>
+  <si>
+    <t>DetailsCalc</t>
+  </si>
+  <si>
+    <t>CalcRejects</t>
+  </si>
+  <si>
+    <t>CalcUnitsReportedOK</t>
+  </si>
+  <si>
+    <t>CalcOriginalJobData</t>
+  </si>
+  <si>
+    <t>CalcTimes</t>
+  </si>
+  <si>
+    <t>CalcTimesFromDB</t>
+  </si>
+  <si>
+    <t>CalcEngineTimesFromDB</t>
+  </si>
+  <si>
+    <t>CalcEffectiveData</t>
+  </si>
+  <si>
+    <t>CalcCycleTimeParams</t>
+  </si>
+  <si>
+    <t>CalcTimeLeftHr</t>
+  </si>
+  <si>
+    <t>MaterialCalc</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>ClosePreviousShifts</t>
+  </si>
+  <si>
+    <t>CompleteMissingShiftsObject</t>
+  </si>
+  <si>
+    <t>RtEvent</t>
+  </si>
+  <si>
+    <t>CreateJoshForNewShift</t>
+  </si>
+  <si>
+    <t>CloseJobForNewShift</t>
+  </si>
+  <si>
+    <t>EndEvent</t>
+  </si>
+  <si>
+    <t>Create</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +418,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,16 +448,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -252,6 +552,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -287,6 +604,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,23 +796,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -495,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -515,159 +849,1267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="34.36328125" customWidth="1"/>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" t="s">
+        <v>109</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" t="s">
+        <v>111</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" t="s">
+        <v>106</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>71</v>
+      </c>
+      <c r="B132" t="s">
+        <v>109</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>71</v>
+      </c>
+      <c r="B133" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>71</v>
+      </c>
+      <c r="B135" t="s">
+        <v>111</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -679,28 +2121,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA212484-D8F9-4129-9042-088C0A3DA016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019B29F-8501-487A-9AF4-2FCAA18B285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="125">
   <si>
     <t>MdiADoFunctions</t>
   </si>
@@ -454,10 +454,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -892,7 +892,7 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,11 +951,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1748,13 +1748,13 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1815,6 +1815,9 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>54</v>
+      </c>
       <c r="B90" t="s">
         <v>122</v>
       </c>

--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019B29F-8501-487A-9AF4-2FCAA18B285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8AEE8-C429-4725-A5E2-F4EE50736EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="126">
   <si>
     <t>MdiADoFunctions</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Create</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +439,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -452,12 +467,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -891,14 +908,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.21875" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -919,6 +937,9 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -927,6 +948,9 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -935,8 +959,8 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -946,16 +970,16 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -964,8 +988,8 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="C7" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -975,6 +999,9 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -983,8 +1010,8 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
+      <c r="C9" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -993,6 +1020,9 @@
       </c>
       <c r="B10" t="s">
         <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">

--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8AEE8-C429-4725-A5E2-F4EE50736EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A68BCE-4548-4CBC-B4A8-4B2354DC5D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="126">
   <si>
     <t>MdiADoFunctions</t>
   </si>
@@ -471,10 +471,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,8 +937,8 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -975,11 +975,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -988,7 +988,7 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1032,8 +1032,8 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1043,8 +1043,8 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1054,8 +1054,8 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1065,8 +1065,8 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1076,6 +1076,9 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1084,8 +1087,8 @@
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
-        <v>12</v>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,6 +1098,9 @@
       <c r="B17" t="s">
         <v>39</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1103,8 +1109,8 @@
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,8 +1155,8 @@
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
+      <c r="C23" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">

--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A68BCE-4548-4CBC-B4A8-4B2354DC5D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DF9763-8BDC-4033-A2B8-13AF47DF68C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,7 +909,7 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,8 +1166,8 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
+      <c r="C24" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">

--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DF9763-8BDC-4033-A2B8-13AF47DF68C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0CAF24-51F0-448A-B1FB-C13F4002AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="127">
   <si>
     <t>MdiADoFunctions</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>XMLCalc</t>
   </si>
 </sst>
 </file>
@@ -908,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,8 +1180,8 @@
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
+      <c r="C25" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,30 +1191,30 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1219,40 +1222,40 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1260,10 +1263,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -1271,10 +1274,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1282,10 +1285,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -1304,10 +1307,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1318,7 +1321,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1326,10 +1329,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1337,10 +1340,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1348,10 +1351,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1359,10 +1362,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1370,10 +1373,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1381,10 +1384,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -1392,10 +1395,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -1403,10 +1406,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -1417,7 +1420,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1428,9 +1431,20 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
         <v>67</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2156,6 +2170,7 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0CAF24-51F0-448A-B1FB-C13F4002AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44D51D7-97B4-4C5A-9162-1EAF975B0DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,8 +1213,8 @@
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>125</v>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,8 +1257,8 @@
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
+      <c r="C32" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,8 +1268,8 @@
       <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
+      <c r="C33" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">

--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44D51D7-97B4-4C5A-9162-1EAF975B0DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD27DD6E-2D9B-41F2-8233-469E1E9D0C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,8 +1279,8 @@
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>12</v>
+      <c r="C34" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,8 +1290,8 @@
       <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="C35" t="s">
-        <v>12</v>
+      <c r="C35" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,8 +1301,8 @@
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>12</v>
+      <c r="C36" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1312,8 +1312,8 @@
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>12</v>
+      <c r="C37" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">

--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD27DD6E-2D9B-41F2-8233-469E1E9D0C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DE7AEA-3ED0-4CF9-912F-49093B8C50A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="1" r:id="rId1"/>
     <sheet name="classes" sheetId="2" r:id="rId2"/>
     <sheet name="code to write" sheetId="3" r:id="rId3"/>
     <sheet name="Libraries" sheetId="4" r:id="rId4"/>
+    <sheet name="Bugs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="134">
   <si>
     <t>MdiADoFunctions</t>
   </si>
@@ -410,6 +411,27 @@
   </si>
   <si>
     <t>XMLCalc</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>isnumeric()</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Everywhere</t>
+  </si>
+  <si>
+    <t>GetParam()</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -911,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2202,4 +2224,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BBBBAD-6EAF-4D35-845C-18048AD5969D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code explanation/FIles explanations.xlsx
+++ b/code explanation/FIles explanations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DE7AEA-3ED0-4CF9-912F-49093B8C50A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291AEEB6-82C5-4362-9BC6-C804E448EE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="143">
   <si>
     <t>MdiADoFunctions</t>
   </si>
@@ -432,6 +432,33 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>DataSample</t>
+  </si>
+  <si>
+    <t>Calc()</t>
+  </si>
+  <si>
+    <t>fCalcShiftChange()</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>First dat of Week conversion</t>
+  </si>
+  <si>
+    <t>Causing infinite recursion</t>
+  </si>
+  <si>
+    <t>ClosePreviousShifts()</t>
+  </si>
+  <si>
+    <t>Rst.Update method</t>
+  </si>
+  <si>
+    <t>CreateJoshForNewShift()</t>
   </si>
 </sst>
 </file>
@@ -933,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,8 +1040,8 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>125</v>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1024,8 +1051,8 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>125</v>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1035,8 +1062,8 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>125</v>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1046,8 +1073,8 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>125</v>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1101,8 +1128,8 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>125</v>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1145,6 +1172,9 @@
       <c r="B19" t="s">
         <v>40</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1153,6 +1183,9 @@
       <c r="B20" t="s">
         <v>41</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1161,6 +1194,9 @@
       <c r="B21" t="s">
         <v>42</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1169,8 +1205,8 @@
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,8 +1216,8 @@
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>125</v>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,8 +1227,8 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>125</v>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,8 +1238,8 @@
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>125</v>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,8 +1282,8 @@
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>125</v>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,8 +1293,8 @@
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>125</v>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,8 +1304,8 @@
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>125</v>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,8 +1315,8 @@
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>125</v>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,8 +1326,8 @@
       <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>125</v>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,8 +1337,8 @@
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>125</v>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1312,8 +1348,8 @@
       <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>125</v>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1323,8 +1359,8 @@
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>125</v>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1334,8 +1370,8 @@
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>125</v>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1345,8 +1381,8 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="C38" t="s">
-        <v>12</v>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1356,8 +1392,8 @@
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" t="s">
-        <v>12</v>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1367,8 +1403,8 @@
       <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,8 +1414,8 @@
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1389,8 +1425,8 @@
       <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="C42" t="s">
-        <v>12</v>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1400,8 +1436,8 @@
       <c r="B43" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="s">
-        <v>12</v>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1411,8 +1447,8 @@
       <c r="B44" t="s">
         <v>63</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1422,8 +1458,8 @@
       <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="C45" t="s">
-        <v>12</v>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1433,8 +1469,8 @@
       <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="C46" t="s">
-        <v>12</v>
+      <c r="C46" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1444,8 +1480,8 @@
       <c r="B47" t="s">
         <v>67</v>
       </c>
-      <c r="C47" t="s">
-        <v>12</v>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1455,8 +1491,8 @@
       <c r="B48" t="s">
         <v>99</v>
       </c>
-      <c r="C48" t="s">
-        <v>12</v>
+      <c r="C48" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1466,8 +1502,8 @@
       <c r="B49" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s">
-        <v>12</v>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1477,8 +1513,8 @@
       <c r="B50" t="s">
         <v>68</v>
       </c>
-      <c r="C50" t="s">
-        <v>12</v>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1488,8 +1524,8 @@
       <c r="B51" t="s">
         <v>69</v>
       </c>
-      <c r="C51" t="s">
-        <v>12</v>
+      <c r="C51" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1499,8 +1535,8 @@
       <c r="B52" t="s">
         <v>70</v>
       </c>
-      <c r="C52" t="s">
-        <v>12</v>
+      <c r="C52" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1510,8 +1546,8 @@
       <c r="B53" t="s">
         <v>35</v>
       </c>
-      <c r="C53" t="s">
-        <v>12</v>
+      <c r="C53" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1521,8 +1557,8 @@
       <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" t="s">
-        <v>12</v>
+      <c r="C54" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1532,8 +1568,8 @@
       <c r="B55" t="s">
         <v>73</v>
       </c>
-      <c r="C55" t="s">
-        <v>12</v>
+      <c r="C55" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1543,8 +1579,8 @@
       <c r="B56" t="s">
         <v>74</v>
       </c>
-      <c r="C56" t="s">
-        <v>12</v>
+      <c r="C56" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1554,8 +1590,8 @@
       <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C57" t="s">
-        <v>12</v>
+      <c r="C57" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1565,8 +1601,8 @@
       <c r="B58" t="s">
         <v>75</v>
       </c>
-      <c r="C58" t="s">
-        <v>12</v>
+      <c r="C58" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1576,8 +1612,8 @@
       <c r="B59" t="s">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
-        <v>12</v>
+      <c r="C59" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1587,8 +1623,8 @@
       <c r="B60" t="s">
         <v>76</v>
       </c>
-      <c r="C60" t="s">
-        <v>12</v>
+      <c r="C60" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1598,6 +1634,9 @@
       <c r="B61" t="s">
         <v>35</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -1606,8 +1645,8 @@
       <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C62" t="s">
-        <v>12</v>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,8 +1656,8 @@
       <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="C63" t="s">
-        <v>12</v>
+      <c r="C63" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,8 +1667,8 @@
       <c r="B64" t="s">
         <v>85</v>
       </c>
-      <c r="C64" t="s">
-        <v>12</v>
+      <c r="C64" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,8 +1678,8 @@
       <c r="B65" t="s">
         <v>86</v>
       </c>
-      <c r="C65" t="s">
-        <v>12</v>
+      <c r="C65" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,8 +1689,8 @@
       <c r="B66" t="s">
         <v>84</v>
       </c>
-      <c r="C66" t="s">
-        <v>12</v>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1661,8 +1700,8 @@
       <c r="B67" t="s">
         <v>87</v>
       </c>
-      <c r="C67" t="s">
-        <v>12</v>
+      <c r="C67" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1672,8 +1711,8 @@
       <c r="B68" t="s">
         <v>89</v>
       </c>
-      <c r="C68" t="s">
-        <v>12</v>
+      <c r="C68" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,8 +1722,8 @@
       <c r="B69" t="s">
         <v>84</v>
       </c>
-      <c r="C69" t="s">
-        <v>12</v>
+      <c r="C69" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1694,8 +1733,8 @@
       <c r="B70" t="s">
         <v>88</v>
       </c>
-      <c r="C70" t="s">
-        <v>12</v>
+      <c r="C70" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,8 +1744,8 @@
       <c r="B71" t="s">
         <v>90</v>
       </c>
-      <c r="C71" t="s">
-        <v>12</v>
+      <c r="C71" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1716,8 +1755,8 @@
       <c r="B72" t="s">
         <v>91</v>
       </c>
-      <c r="C72" t="s">
-        <v>12</v>
+      <c r="C72" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1727,8 +1766,8 @@
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" t="s">
-        <v>12</v>
+      <c r="C73" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,8 +1777,8 @@
       <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="C74" t="s">
-        <v>12</v>
+      <c r="C74" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1749,8 +1788,8 @@
       <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="C75" t="s">
-        <v>12</v>
+      <c r="C75" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1760,8 +1799,8 @@
       <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C76" t="s">
-        <v>12</v>
+      <c r="C76" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,8 +1810,8 @@
       <c r="B77" t="s">
         <v>92</v>
       </c>
-      <c r="C77" t="s">
-        <v>12</v>
+      <c r="C77" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,8 +1821,8 @@
       <c r="B78" t="s">
         <v>94</v>
       </c>
-      <c r="C78" t="s">
-        <v>12</v>
+      <c r="C78" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,8 +1832,8 @@
       <c r="B79" t="s">
         <v>35</v>
       </c>
-      <c r="C79" t="s">
-        <v>12</v>
+      <c r="C79" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,8 +1843,8 @@
       <c r="B80" t="s">
         <v>97</v>
       </c>
-      <c r="C80" t="s">
-        <v>12</v>
+      <c r="C80" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,8 +1854,8 @@
       <c r="B81" t="s">
         <v>42</v>
       </c>
-      <c r="C81" t="s">
-        <v>12</v>
+      <c r="C81" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,8 +1865,8 @@
       <c r="B82" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>12</v>
+      <c r="C82" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2228,20 +2267,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BBBBAD-6EAF-4D35-845C-18048AD5969D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2251,8 +2291,11 @@
       <c r="C1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -2263,7 +2306,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2274,7 +2317,61 @@
         <v>133</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>